--- a/data/trans_dic/P34B04_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P34B04_R-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1804114477096054</v>
+        <v>0.1849265347654242</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1612821065530342</v>
+        <v>0.1631422026830334</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1968446171737854</v>
+        <v>0.1967667945261777</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.01831552752137377</v>
+        <v>0.01839911899658347</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.02630280225266352</v>
+        <v>0.02636725522745915</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.02355199313277956</v>
+        <v>0.02595858230665105</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1074185077156237</v>
+        <v>0.1060564147110925</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1040214599371761</v>
+        <v>0.1019435454389089</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1265235448235464</v>
+        <v>0.1298389053314681</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2593031653114485</v>
+        <v>0.262315770356169</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2431904982362693</v>
+        <v>0.2434593396996616</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3363685617693885</v>
+        <v>0.3392249267703196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.05446694300302857</v>
+        <v>0.05051370706687321</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.06628670321337325</v>
+        <v>0.06597932490890025</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.08589595445817239</v>
+        <v>0.08894018983294871</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1520841385287106</v>
+        <v>0.150855770395851</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1491211265300361</v>
+        <v>0.1493117921485174</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.2082817013236793</v>
+        <v>0.2076129052973311</v>
       </c>
     </row>
     <row r="7">
@@ -764,7 +764,7 @@
         <v>0.01883038893455263</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.03239335143860516</v>
+        <v>0.03239335143860515</v>
       </c>
       <c r="I7" s="5" t="n">
         <v>0.07400856748275714</v>
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1050409359029604</v>
+        <v>0.1017636737754134</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.08682701853561275</v>
+        <v>0.08683234063847216</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1036437484913281</v>
+        <v>0.1026883652851302</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.004630865220125156</v>
+        <v>0.004432949549359974</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.01014020005723008</v>
+        <v>0.01020295049795046</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.01777200300405167</v>
+        <v>0.01709482369290328</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0610953011102819</v>
+        <v>0.06076449012039956</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05197179009470007</v>
+        <v>0.05209052353154634</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.06697492644942638</v>
+        <v>0.06698216044866419</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1558363642228407</v>
+        <v>0.1568743397470261</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1386255946738271</v>
+        <v>0.1413366258487432</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1857980287361523</v>
+        <v>0.187447857210846</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02636768411115084</v>
+        <v>0.02532450467853158</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.0321265074482041</v>
+        <v>0.03264406334254171</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.05175666790404477</v>
+        <v>0.05322297576180219</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.09003504555836279</v>
+        <v>0.08950628150675896</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08003266445560077</v>
+        <v>0.08154524142726867</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1128088636801147</v>
+        <v>0.1138145314581664</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.03557118046049439</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.06098740605336049</v>
+        <v>0.06098740605336048</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03736982490674685</v>
+        <v>0.03847583146392681</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03673678632831367</v>
+        <v>0.03778660016230551</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.07798346650577216</v>
+        <v>0.07933279836087757</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.001361989200705775</v>
+        <v>0.001369290768105009</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.009642423460362932</v>
+        <v>0.009803184633593347</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01211287514733293</v>
+        <v>0.011837303806847</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.020946614843627</v>
+        <v>0.02080595194974736</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02587348965323861</v>
+        <v>0.02652529988941255</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04935169927272631</v>
+        <v>0.04752586517916917</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.06935606892189923</v>
+        <v>0.07104239941349513</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.07167356169344306</v>
+        <v>0.07208046241190728</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1337867789348987</v>
+        <v>0.13110495517055</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.01809608842172316</v>
+        <v>0.01594524421288189</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.03135244193151334</v>
+        <v>0.03055210661863054</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.03215112317804934</v>
+        <v>0.03145267037075779</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.03786042266627677</v>
+        <v>0.0386045396918633</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.04569591470388178</v>
+        <v>0.04642689551813922</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.07722946754539976</v>
+        <v>0.07743193068616454</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.01873466040558774</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.04413873961054669</v>
+        <v>0.0441387396105467</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.02387366453272368</v>
+        <v>0.02516414980079018</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01916711460742351</v>
+        <v>0.01753501984032821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.05321340519665697</v>
+        <v>0.05448777258838285</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.003289883938405079</v>
+        <v>0.003155853941887173</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.0106111539346107</v>
+        <v>0.01096080054741402</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.0127152151612306</v>
+        <v>0.01238014331299569</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.01212645186054864</v>
+        <v>0.0122196312216526</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.03414546750562127</v>
+        <v>0.0340752677732331</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.05869435715357817</v>
+        <v>0.0584346181339347</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04659014204021524</v>
+        <v>0.04509817184996561</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.09291172872900477</v>
+        <v>0.09448122973618522</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.008725864457017913</v>
+        <v>0.007813373722242426</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01870054091345995</v>
+        <v>0.01831601075060738</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.02635594023332966</v>
+        <v>0.02740248225918353</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.03045468733845813</v>
+        <v>0.02987983545765641</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.02774966159513119</v>
+        <v>0.02799579251163191</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.05584539714162026</v>
+        <v>0.0561333480176647</v>
       </c>
     </row>
     <row r="16">
@@ -1082,7 +1082,7 @@
         <v>0.02343455632938023</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.03165484094134108</v>
+        <v>0.03165484094134107</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>0.002135090020446231</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.009179035590692993</v>
+        <v>0.009179035590692998</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.002380487242243485</v>
@@ -1114,26 +1114,26 @@
         <v>0</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.01170710322890469</v>
+        <v>0.01155618842934662</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.02064178128976606</v>
+        <v>0.02023448704493423</v>
       </c>
       <c r="F17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.004441740272922486</v>
+        <v>0.003828192591672664</v>
       </c>
       <c r="I17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.005711439827447641</v>
+        <v>0.005683574444079864</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.01400552448333065</v>
+        <v>0.01410718301973705</v>
       </c>
     </row>
     <row r="18">
@@ -1144,29 +1144,29 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.01580487402407342</v>
+        <v>0.01339629940701726</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.04311486223762014</v>
+        <v>0.04232217360188782</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.04622460993836558</v>
+        <v>0.0477418019960317</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.0117862145332085</v>
+        <v>0.01134842887166544</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.01685403988317574</v>
+        <v>0.01639809446113083</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.00829407739176668</v>
+        <v>0.008000944483530947</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.02147099741906572</v>
+        <v>0.02226688985536679</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.0295077486006682</v>
+        <v>0.02911886216192398</v>
       </c>
     </row>
     <row r="19">
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.005196340216918224</v>
+        <v>0.005196340216918223</v>
       </c>
       <c r="I19" s="5" t="n">
         <v>0.009104205731264284</v>
@@ -1205,7 +1205,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="5" t="n">
-        <v>0.00827369781286123</v>
+        <v>0.008273697812861231</v>
       </c>
     </row>
     <row r="20">
@@ -1216,23 +1216,23 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.009467433950345836</v>
+        <v>0.006550649123865729</v>
       </c>
       <c r="D20" s="5" t="inlineStr"/>
       <c r="E20" s="5" t="n">
-        <v>0.004944913963439108</v>
+        <v>0.004933123727972929</v>
       </c>
       <c r="F20" s="5" t="inlineStr"/>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.001404665740794818</v>
+        <v>0.001434293702058132</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.003059819640453957</v>
+        <v>0.004405881300463878</v>
       </c>
       <c r="J20" s="5" t="inlineStr"/>
       <c r="K20" s="5" t="n">
-        <v>0.004370957691889141</v>
+        <v>0.003791292910611071</v>
       </c>
     </row>
     <row r="21">
@@ -1243,23 +1243,23 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03953647469082039</v>
+        <v>0.04270465346276909</v>
       </c>
       <c r="D21" s="5" t="inlineStr"/>
       <c r="E21" s="5" t="n">
-        <v>0.02228110346408715</v>
+        <v>0.02522758346225199</v>
       </c>
       <c r="F21" s="5" t="inlineStr"/>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.01272800360831516</v>
+        <v>0.01271843334077729</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.01838348432280389</v>
+        <v>0.01969620650943159</v>
       </c>
       <c r="J21" s="5" t="inlineStr"/>
       <c r="K21" s="5" t="n">
-        <v>0.01472940587807218</v>
+        <v>0.01456701616029055</v>
       </c>
     </row>
     <row r="22">
@@ -1298,7 +1298,7 @@
         <v>0.001236765310093623</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.002054956554240064</v>
+        <v>0.002054956554240063</v>
       </c>
     </row>
     <row r="23">
@@ -1325,7 +1325,7 @@
         <v>0</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.0005580045644101951</v>
+        <v>0.0005542058745218229</v>
       </c>
     </row>
     <row r="24">
@@ -1337,22 +1337,22 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.01908582968515593</v>
+        <v>0.01843654914113851</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01069221436684999</v>
+        <v>0.01073658771239409</v>
       </c>
       <c r="F24" s="5" t="inlineStr"/>
       <c r="G24" s="5" t="inlineStr"/>
       <c r="H24" s="5" t="n">
-        <v>0.006848696762642804</v>
+        <v>0.006686452279724571</v>
       </c>
       <c r="I24" s="5" t="inlineStr"/>
       <c r="J24" s="5" t="n">
-        <v>0.005189670007661519</v>
+        <v>0.006238558588377752</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.005843665452046259</v>
+        <v>0.005556811135226662</v>
       </c>
     </row>
     <row r="25">
@@ -1373,7 +1373,7 @@
         <v>0.06349223262738188</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>0.08926204932698681</v>
+        <v>0.08926204932698684</v>
       </c>
       <c r="F25" s="5" t="n">
         <v>0.007805267375663593</v>
@@ -1391,7 +1391,7 @@
         <v>0.0375216347427424</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.05276482242553932</v>
+        <v>0.05276482242553933</v>
       </c>
     </row>
     <row r="26">
@@ -1402,31 +1402,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.06466499153713677</v>
+        <v>0.0661686480746638</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.055072770469287</v>
+        <v>0.05539991536464666</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.07798213750462946</v>
+        <v>0.07868164208410783</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.005071056432791196</v>
+        <v>0.005337938118601711</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.009261965743335758</v>
+        <v>0.009440384299811999</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01426601239450893</v>
+        <v>0.01406229834877403</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.03517489219078375</v>
+        <v>0.03544208575897292</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03331372665902499</v>
+        <v>0.03297671956430141</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.04582638134240534</v>
+        <v>0.04686123819316569</v>
       </c>
     </row>
     <row r="27">
@@ -1437,31 +1437,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.08362610303918493</v>
+        <v>0.08390372651144784</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.07200574211366807</v>
+        <v>0.07306654569645676</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.1025809501600712</v>
+        <v>0.1027763838132724</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.01143637414242581</v>
+        <v>0.01125050515760773</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.01665639102556401</v>
+        <v>0.01683777980931075</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.0235318488746253</v>
+        <v>0.0226735186217207</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.04555708915305601</v>
+        <v>0.04547412359662215</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04217251805936301</v>
+        <v>0.04257874747128633</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.05932857648003088</v>
+        <v>0.05935586359239532</v>
       </c>
     </row>
     <row r="28">
@@ -1693,31 +1693,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>81722</v>
+        <v>83767</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>67652</v>
+        <v>68432</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>80272</v>
+        <v>80240</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>7880</v>
+        <v>7916</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>10409</v>
+        <v>10435</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>8490</v>
+        <v>9358</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>94873</v>
+        <v>93670</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>84800</v>
+        <v>83106</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>97205</v>
+        <v>99752</v>
       </c>
     </row>
     <row r="7">
@@ -1728,31 +1728,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>117458</v>
+        <v>118822</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>102009</v>
+        <v>102122</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>137169</v>
+        <v>138334</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>23433</v>
+        <v>21733</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>26233</v>
+        <v>26112</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>30964</v>
+        <v>32061</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>134321</v>
+        <v>133237</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>121566</v>
+        <v>121722</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>160018</v>
+        <v>159504</v>
       </c>
     </row>
     <row r="8">
@@ -1837,31 +1837,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>72078</v>
+        <v>69829</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>51271</v>
+        <v>51274</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>49427</v>
+        <v>48971</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2826</v>
+        <v>2705</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5714</v>
+        <v>5750</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>8881</v>
+        <v>8543</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>79207</v>
+        <v>78778</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>59978</v>
+        <v>60115</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>65409</v>
+        <v>65416</v>
       </c>
     </row>
     <row r="11">
@@ -1872,31 +1872,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>106933</v>
+        <v>107646</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>81858</v>
+        <v>83459</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>88605</v>
+        <v>89392</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>16091</v>
+        <v>15454</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>18105</v>
+        <v>18396</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>25864</v>
+        <v>26597</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>116726</v>
+        <v>116040</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>92361</v>
+        <v>94106</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>110171</v>
+        <v>111154</v>
       </c>
     </row>
     <row r="12">
@@ -1981,31 +1981,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25481</v>
+        <v>26235</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>24580</v>
+        <v>25283</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>48328</v>
+        <v>49164</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>6377</v>
+        <v>6484</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>7527</v>
+        <v>7356</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>29133</v>
+        <v>28937</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>34424</v>
+        <v>35291</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>61253</v>
+        <v>58987</v>
       </c>
     </row>
     <row r="15">
@@ -2016,31 +2016,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47291</v>
+        <v>48441</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>47957</v>
+        <v>48229</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>82910</v>
+        <v>81248</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>12829</v>
+        <v>11304</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>20736</v>
+        <v>20207</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>19980</v>
+        <v>19546</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>52657</v>
+        <v>53692</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>60798</v>
+        <v>61770</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>95853</v>
+        <v>96104</v>
       </c>
     </row>
     <row r="16">
@@ -2125,31 +2125,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>14673</v>
+        <v>15466</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12383</v>
+        <v>11328</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>37282</v>
+        <v>38175</v>
       </c>
       <c r="F18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2135</v>
+        <v>2048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7815</v>
+        <v>8073</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>15650</v>
+        <v>15238</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>15705</v>
+        <v>15826</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>49071</v>
+        <v>48970</v>
       </c>
     </row>
     <row r="19">
@@ -2160,31 +2160,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>36075</v>
+        <v>35915</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30099</v>
+        <v>29136</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>65096</v>
+        <v>66195</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>5377</v>
+        <v>4815</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>12138</v>
+        <v>11889</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>19411</v>
+        <v>20182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>37484</v>
+        <v>36777</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>35939</v>
+        <v>36258</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>80256</v>
+        <v>80670</v>
       </c>
     </row>
     <row r="20">
@@ -2272,26 +2272,26 @@
         <v>0</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>5595</v>
+        <v>5523</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>12556</v>
+        <v>12308</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>2701</v>
+        <v>2328</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>5567</v>
+        <v>5540</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>17036</v>
+        <v>17160</v>
       </c>
     </row>
     <row r="23">
@@ -2302,29 +2302,29 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6787</v>
+        <v>5753</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>20605</v>
+        <v>20227</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>28117</v>
+        <v>29040</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>5278</v>
+        <v>5082</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>10249</v>
+        <v>9972</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>7276</v>
+        <v>7019</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>20929</v>
+        <v>21705</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>35893</v>
+        <v>35420</v>
       </c>
     </row>
     <row r="24">
@@ -2409,23 +2409,23 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>2933</v>
+        <v>2029</v>
       </c>
       <c r="D26" s="6" t="inlineStr"/>
       <c r="E26" s="6" t="n">
-        <v>2013</v>
+        <v>2008</v>
       </c>
       <c r="F26" s="6" t="inlineStr"/>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>617</v>
+        <v>630</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>2031</v>
+        <v>2925</v>
       </c>
       <c r="J26" s="6" t="inlineStr"/>
       <c r="K26" s="6" t="n">
-        <v>3699</v>
+        <v>3208</v>
       </c>
     </row>
     <row r="27">
@@ -2436,23 +2436,23 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>12248</v>
+        <v>13229</v>
       </c>
       <c r="D27" s="6" t="inlineStr"/>
       <c r="E27" s="6" t="n">
-        <v>9070</v>
+        <v>10270</v>
       </c>
       <c r="F27" s="6" t="inlineStr"/>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>5590</v>
+        <v>5586</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>12203</v>
+        <v>13074</v>
       </c>
       <c r="J27" s="6" t="inlineStr"/>
       <c r="K27" s="6" t="n">
-        <v>12465</v>
+        <v>12327</v>
       </c>
     </row>
     <row r="28">
@@ -2553,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="31">
@@ -2565,22 +2565,22 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>4905</v>
+        <v>4738</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>3317</v>
+        <v>3330</v>
       </c>
       <c r="F31" s="6" t="inlineStr"/>
       <c r="G31" s="6" t="inlineStr"/>
       <c r="H31" s="6" t="n">
-        <v>3178</v>
+        <v>3102</v>
       </c>
       <c r="I31" s="6" t="inlineStr"/>
       <c r="J31" s="6" t="n">
-        <v>3410</v>
+        <v>4100</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>4524</v>
+        <v>4302</v>
       </c>
     </row>
     <row r="32">
@@ -2665,31 +2665,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>221459</v>
+        <v>226608</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>186936</v>
+        <v>188047</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>275321</v>
+        <v>277790</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>18035</v>
+        <v>18984</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>32829</v>
+        <v>33462</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>53204</v>
+        <v>52444</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>245560</v>
+        <v>247426</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>231160</v>
+        <v>228822</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>332699</v>
+        <v>340212</v>
       </c>
     </row>
     <row r="35">
@@ -2700,31 +2700,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>286395</v>
+        <v>287346</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>244413</v>
+        <v>248013</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>362168</v>
+        <v>362858</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>40672</v>
+        <v>40011</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>59039</v>
+        <v>59682</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>87760</v>
+        <v>84559</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>318040</v>
+        <v>317461</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>292631</v>
+        <v>295449</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>430725</v>
+        <v>430923</v>
       </c>
     </row>
     <row r="36">
